--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>73.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>69.81</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.02</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600435-北方导航.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,11 +535,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.06</v>
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -566,6 +583,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1589,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1721,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
